--- a/tools/data/sql_training_data.xlsx
+++ b/tools/data/sql_training_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\smart-customer-service-system\tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC1875-4AC8-4668-B0F1-41D4846B6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9412AE-8F57-4FAC-93FB-4DF2C1C044E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ddl" sheetId="1" r:id="rId1"/>
     <sheet name="documentation" sheetId="2" r:id="rId2"/>
     <sheet name="qa" sheetId="3" r:id="rId3"/>
+    <sheet name="bak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4900,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4931,123 +4932,113 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1477</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>1475</v>
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1476</v>
+      <c r="A19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A26" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -5061,7 +5052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+    <sheetView topLeftCell="A709" workbookViewId="0">
       <selection activeCell="A724" sqref="A724"/>
     </sheetView>
   </sheetViews>
@@ -11067,4 +11058,33 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D91FF-40DA-47A0-942E-AA40C7181D6A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>